--- a/02_PracticalClasses_AulasPraticas/ModuleOfPractice_08_LVQ/LVQ_algorithm_exercise.xlsx
+++ b/02_PracticalClasses_AulasPraticas/ModuleOfPractice_08_LVQ/LVQ_algorithm_exercise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iselpt-my.sharepoint.com/personal/a45881_alunos_isel_pt/Documents/Mestrado/Semestre 1/AMD/Trabalhos/02_PracticalClasses_AulasPraticas/ModuleOfPractice_08_LVQ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="11_B88C6DC6522DFC8A7DC32CC815316DDE15AD3B6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48B7A661-3C45-44C4-9A46-0058130B4F29}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="11_B88C6DC6522DFC8A7DC32CC815316DDE15AD3B6C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF9853CF-42C0-490C-BC9F-EB523CE881BA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2537,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V193"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3446,15 +3446,15 @@
         <v>0</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" ref="E36:E38" si="0">A$11</f>
+        <f t="shared" ref="E36:E37" si="0">A$11</f>
         <v>3.3935332109999998</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" ref="F36:F39" si="1">B$11</f>
+        <f t="shared" ref="F36:F38" si="1">B$11</f>
         <v>2.3312733809999999</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" ref="G36:G39" si="2">C$11</f>
+        <f t="shared" ref="G36:G38" si="2">C$11</f>
         <v>0</v>
       </c>
       <c r="H36" s="3">
@@ -3706,11 +3706,11 @@
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" ref="E40:E43" si="13">A$12</f>
+        <f t="shared" ref="E40:E42" si="13">A$12</f>
         <v>3.1100734829999999</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" ref="F40:F43" si="14">B$12</f>
+        <f t="shared" ref="F40:F42" si="14">B$12</f>
         <v>1.7815396379999999</v>
       </c>
       <c r="G40" s="3">
@@ -3734,7 +3734,7 @@
         <v>4.7148679847437878</v>
       </c>
       <c r="L40" s="3" t="str">
-        <f t="shared" ref="L40:L74" si="16">IF(K40=MIN(K$39:K$42),"BMU","")</f>
+        <f t="shared" ref="L40:L41" si="16">IF(K40=MIN(K$39:K$42),"BMU","")</f>
         <v/>
       </c>
       <c r="M40" s="3">
@@ -3799,7 +3799,7 @@
         <v>4.9502184163522527</v>
       </c>
       <c r="L41" s="3" t="str">
-        <f t="shared" si="16"/>
+        <f>IF(K41=MIN(K$39:K$42),"BMU","")</f>
         <v/>
       </c>
       <c r="M41" s="3">
@@ -3974,7 +3974,7 @@
         <v>3.3683609539999999</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" ref="G44:G47" si="22">C$13</f>
+        <f t="shared" ref="G44:G45" si="22">C$13</f>
         <v>0</v>
       </c>
       <c r="H44" s="3">
@@ -4226,15 +4226,15 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" ref="E48:E51" si="24">A$14</f>
+        <f t="shared" ref="E48:E50" si="24">A$14</f>
         <v>3.582294042</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" ref="F48:F51" si="25">B$14</f>
+        <f t="shared" ref="F48:F50" si="25">B$14</f>
         <v>4.6791791099999998</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" ref="G48:G51" si="26">C$14</f>
+        <f t="shared" ref="G48:G50" si="26">C$14</f>
         <v>0</v>
       </c>
       <c r="H48" s="3">
@@ -4486,15 +4486,15 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" ref="E52:E55" si="28">A$15</f>
+        <f t="shared" ref="E52:E53" si="28">A$15</f>
         <v>2.2803624390000001</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" ref="F52:F55" si="29">B$15</f>
+        <f t="shared" ref="F52:F53" si="29">B$15</f>
         <v>2.8669902629999999</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" ref="G52:G55" si="30">C$15</f>
+        <f t="shared" ref="G52:G54" si="30">C$15</f>
         <v>0</v>
       </c>
       <c r="H52" s="3">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" ref="E56:E59" si="32">A$16</f>
+        <f t="shared" ref="E56:E58" si="32">A$16</f>
         <v>7.4234369420000004</v>
       </c>
       <c r="F56" s="3">
@@ -4754,7 +4754,7 @@
         <v>4.6965228750000003</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" ref="G56:G59" si="33">C$16</f>
+        <f t="shared" ref="G56:G58" si="33">C$16</f>
         <v>1</v>
       </c>
       <c r="H56" s="3">
@@ -4815,7 +4815,7 @@
         <v>7.4234369420000004</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" ref="F56:F59" si="34">B$16</f>
+        <f t="shared" ref="F57:F58" si="34">B$16</f>
         <v>4.6965228750000003</v>
       </c>
       <c r="G57" s="3">
@@ -5006,15 +5006,15 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" ref="E60:E63" si="36">A$17</f>
+        <f t="shared" ref="E60:E62" si="36">A$17</f>
         <v>5.745051997</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" ref="F60:F63" si="37">B$17</f>
+        <f t="shared" ref="F60:F62" si="37">B$17</f>
         <v>3.5339898029999999</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" ref="G60:G63" si="38">C$17</f>
+        <f t="shared" ref="G60:G62" si="38">C$17</f>
         <v>1</v>
       </c>
       <c r="H60" s="3">
@@ -5266,15 +5266,15 @@
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" ref="E64:E67" si="40">A$18</f>
+        <f t="shared" ref="E64:E66" si="40">A$18</f>
         <v>9.1721686219999992</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" ref="F64:F67" si="41">B$18</f>
+        <f t="shared" ref="F64:F66" si="41">B$18</f>
         <v>2.5111010450000002</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" ref="G64:G67" si="42">C$18</f>
+        <f t="shared" ref="G64:G66" si="42">C$18</f>
         <v>1</v>
       </c>
       <c r="H64" s="3">
@@ -5526,15 +5526,15 @@
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" ref="E68:E71" si="44">A$19</f>
+        <f t="shared" ref="E68:E70" si="44">A$19</f>
         <v>7.7927834809999998</v>
       </c>
       <c r="F68" s="3">
-        <f t="shared" ref="F68:F71" si="45">B$19</f>
+        <f t="shared" ref="F68:F70" si="45">B$19</f>
         <v>3.4240889409999999</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" ref="G68:G71" si="46">C$19</f>
+        <f t="shared" ref="G68:G70" si="46">C$19</f>
         <v>1</v>
       </c>
       <c r="H68" s="3">
@@ -6153,7 +6153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" ref="E40:G43" si="8">A$12</f>
+        <f t="shared" ref="E40:G42" si="8">A$12</f>
         <v>3.1100734829999999</v>
       </c>
       <c r="F40" s="3">
@@ -7722,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" ref="E48:G51" si="12">A$14</f>
+        <f t="shared" ref="E48:G50" si="12">A$14</f>
         <v>3.582294042</v>
       </c>
       <c r="F48" s="3">
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" ref="E52:G55" si="13">A$15</f>
+        <f t="shared" ref="E52:G54" si="13">A$15</f>
         <v>2.2803624390000001</v>
       </c>
       <c r="F52" s="3">
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" ref="E56:F59" si="14">A$16</f>
+        <f t="shared" ref="E56:F58" si="14">A$16</f>
         <v>7.4234369420000004</v>
       </c>
       <c r="F56" s="3">
@@ -8186,7 +8186,7 @@
         <v>4.6965228750000003</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" ref="G56:G59" si="15">C$16</f>
+        <f t="shared" ref="G56:G58" si="15">C$16</f>
         <v>1</v>
       </c>
       <c r="H56" s="3">
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" ref="E60:G63" si="16">A$17</f>
+        <f t="shared" ref="E60:G62" si="16">A$17</f>
         <v>5.745051997</v>
       </c>
       <c r="F60" s="3">
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" ref="E64:G67" si="17">A$18</f>
+        <f t="shared" ref="E64:G66" si="17">A$18</f>
         <v>9.1721686219999992</v>
       </c>
       <c r="F64" s="3">
@@ -8862,7 +8862,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" ref="E68:G71" si="18">A$19</f>
+        <f t="shared" ref="E68:G70" si="18">A$19</f>
         <v>7.7927834809999998</v>
       </c>
       <c r="F68" s="3">
